--- a/data/income_statement/2digits/size/43_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/43_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>43-Specialised construction activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>43-Specialised construction activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1154 +841,1304 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3091358.75483</v>
+        <v>3313296.41293</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3330722.86941</v>
+        <v>3613212.64252</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3822774.36445</v>
+        <v>4133327.10773</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3830840.97082</v>
+        <v>4198437.92322</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3867358.25015</v>
+        <v>4376925.9234</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3696169.43105</v>
+        <v>4266897.87083</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3735671.2204</v>
+        <v>4490906.05274</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4129411.083039999</v>
+        <v>4978671.94883</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4512534.93013</v>
+        <v>5522182.755429999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10355315.37059</v>
+        <v>11623182.21243</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10322858.82789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12457222.90373</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12862683.418</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2944898.35682</v>
+        <v>3151580.236</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3138834.42836</v>
+        <v>3401253.27089</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3641323.14749</v>
+        <v>3928272.68039</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3611325.54365</v>
+        <v>3955385.5117</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3659491.88343</v>
+        <v>4135710.58662</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3500664.34153</v>
+        <v>4044426.62998</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3578976.34484</v>
+        <v>4291814.850240001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3949381.91377</v>
+        <v>4759118.36817</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4044502.75986</v>
+        <v>5008377.76254</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9877249.447930001</v>
+        <v>11063761.94282</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9821230.698990002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11851892.35447</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12186125.559</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>71942.52361</v>
+        <v>78652.21897</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>88898.11644</v>
+        <v>96700.63197</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>90207.27777000002</v>
+        <v>100985.18258</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>110514.8621</v>
+        <v>117758.79174</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>111594.27173</v>
+        <v>129470.46735</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>128650.4802</v>
+        <v>137524.18667</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>98281.73935999999</v>
+        <v>116476.9327</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>107152.44904</v>
+        <v>118388.04945</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>393163.7467200001</v>
+        <v>408590.3257999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>301010.23664</v>
+        <v>333865.41312</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>320511.7556799999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>365389.98521</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>405967.669</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>74517.8744</v>
+        <v>83063.95796000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>102990.32461</v>
+        <v>115258.73966</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>91243.93919</v>
+        <v>104069.24476</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>109000.56507</v>
+        <v>125293.61978</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>96272.09499000001</v>
+        <v>111744.86943</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>66854.60932</v>
+        <v>84947.05418000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>58413.1362</v>
+        <v>82614.26979999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>72876.72022999999</v>
+        <v>101165.53121</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>74868.42354999999</v>
+        <v>105214.66709</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>177055.68602</v>
+        <v>225554.85649</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>181116.37322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>239940.56405</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>270590.19</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>13805.7501</v>
+        <v>16110.13122</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>13401.57972</v>
+        <v>16177.70518</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>20013.24117</v>
+        <v>22069.99991</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>17059.06438</v>
+        <v>19840.37816</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12454.75186</v>
+        <v>16668.46894</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12763.83462</v>
+        <v>17931.99943</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12503.23297</v>
+        <v>21824.52195</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>20229.68728</v>
+        <v>36021.22966</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16995.59651</v>
+        <v>27734.8735</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>52240.47811</v>
+        <v>64598.3519</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>46899.05836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>57103.64386</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>131183.541</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>10426.64165</v>
+        <v>12503.08756</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>10158.78727</v>
+        <v>12534.43242</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>14141.36121</v>
+        <v>15490.37055</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>14140.56849</v>
+        <v>16537.65925</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10533.52399</v>
+        <v>14549.07536</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10272.28515</v>
+        <v>13791.27051</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9421.232779999998</v>
+        <v>18252.63897</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>12864.99443</v>
+        <v>24185.24629</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>12923.3013</v>
+        <v>22629.33302</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>45621.52095999999</v>
+        <v>56448.74577</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>39648.84936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>48319.92030000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>123096.47</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3101.62774</v>
+        <v>3264.05272</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2852.17173</v>
+        <v>3240.18615</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4953.36664</v>
+        <v>5188.06889</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2726.77368</v>
+        <v>3027.55022</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>955.8641499999999</v>
+        <v>1128.68247</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1832.98678</v>
+        <v>1925.08668</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2048.54916</v>
+        <v>2161.12698</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6536.034650000001</v>
+        <v>10938.14483</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3039.79896</v>
+        <v>3590.444849999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5431.81823</v>
+        <v>6528.19442</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5658.92399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6059.268669999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3138.752</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>277.48071</v>
+        <v>342.99094</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>390.62072</v>
+        <v>403.0866100000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>918.51332</v>
+        <v>1391.56047</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>191.72221</v>
+        <v>275.16869</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>965.3637199999999</v>
+        <v>990.71111</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>658.5626900000001</v>
+        <v>2215.64224</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1033.45103</v>
+        <v>1410.756</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>828.6582000000001</v>
+        <v>897.8385400000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1032.49625</v>
+        <v>1515.09563</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1187.13892</v>
+        <v>1621.41171</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1591.28501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2724.45489</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4948.319</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3077553.00473</v>
+        <v>3297186.281710001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3317321.28969</v>
+        <v>3597034.93734</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3802761.12328</v>
+        <v>4111257.10782</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3813781.90644</v>
+        <v>4178597.54506</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3854903.49829</v>
+        <v>4360257.45446</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3683405.59643</v>
+        <v>4248965.8714</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3723167.98743</v>
+        <v>4469081.53079</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4109181.39576</v>
+        <v>4942650.71917</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4495539.33362</v>
+        <v>5494447.88193</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10303074.89248</v>
+        <v>11558583.86053</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10275959.76953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12400119.25987</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12731499.877</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2492416.2332</v>
+        <v>2657090.1411</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2713278.99671</v>
+        <v>2924467.024879999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3124095.89081</v>
+        <v>3364107.62044</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3153172.5588</v>
+        <v>3440928.40592</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3152665.69894</v>
+        <v>3544728.73267</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2989965.63392</v>
+        <v>3422278.53572</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3043404.91883</v>
+        <v>3616918.329270001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3404927.87708</v>
+        <v>4055237.16533</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3749590.05719</v>
+        <v>4516309.50201</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8670139.39474</v>
+        <v>9676358.129779998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8663633.20616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10447776.49201</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10679031.47</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>311388.74501</v>
+        <v>338533.97005</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>359811.97168</v>
+        <v>396538.50304</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>390864.02922</v>
+        <v>438000.87138</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>373847.47004</v>
+        <v>420831.47734</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>394915.83751</v>
+        <v>467641.30616</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>427826.74229</v>
+        <v>511360.20351</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>399634.99808</v>
+        <v>511553.3734</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>434422.578</v>
+        <v>551723.73435</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>472108.6648200001</v>
+        <v>625267.43216</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1266817.08058</v>
+        <v>1435492.79831</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1323142.83793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1639555.4229</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1593987.127</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1311989.4984</v>
+        <v>1380774.4286</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1434767.51439</v>
+        <v>1515446.12361</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1739256.26973</v>
+        <v>1838152.52923</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1701496.30106</v>
+        <v>1810236.09972</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1616603.98352</v>
+        <v>1777556.90224</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1456763.00537</v>
+        <v>1627743.70286</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1548344.05323</v>
+        <v>1773215.85077</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1719470.28231</v>
+        <v>1962905.74916</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1634882.85311</v>
+        <v>1907733.24249</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4366001.724889999</v>
+        <v>4774637.86227</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4154959.25425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4889764.99441</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5058210.188</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>855610.0505599999</v>
+        <v>923138.0713799999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>914159.4377600001</v>
+        <v>1006366.36157</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>987860.89261</v>
+        <v>1079753.23706</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1069046.44322</v>
+        <v>1199477.52212</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1133938.48985</v>
+        <v>1290678.4772</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1090560.47418</v>
+        <v>1265285.64467</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1082149.54741</v>
+        <v>1311790.56547</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1231255.53894</v>
+        <v>1515079.64614</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1618593.04564</v>
+        <v>1949195.70931</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2985134.77491</v>
+        <v>3402245.56433</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3121106.47301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3833946.53064</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3940419.195</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>13427.93923</v>
+        <v>14643.67107</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4540.072880000001</v>
+        <v>6116.03666</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6114.69925</v>
+        <v>8200.982769999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8782.344479999998</v>
+        <v>10383.30674</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7207.38806</v>
+        <v>8852.047070000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>14815.41208</v>
+        <v>17888.98468</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>13276.32011</v>
+        <v>20358.53963</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19779.47783</v>
+        <v>25528.03568</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>24005.49362</v>
+        <v>34113.11805</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>52185.81436</v>
+        <v>63981.90487</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>64424.64097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>84509.54406</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>86414.96000000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>585136.77153</v>
+        <v>640096.14061</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>604042.2929799999</v>
+        <v>672567.91246</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>678665.23247</v>
+        <v>747149.4873799999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>660609.3476399999</v>
+        <v>737669.13914</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>702237.7993499999</v>
+        <v>815528.7217900001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>693439.96251</v>
+        <v>826687.3356799999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>679763.0686</v>
+        <v>852163.20152</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>704253.51868</v>
+        <v>887413.5538400001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>745949.27643</v>
+        <v>978138.3799200001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1632935.49774</v>
+        <v>1882225.73075</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1612326.56337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1952342.76786</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2052468.407</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>515648.8377500001</v>
+        <v>570200.9328299999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>523310.15213</v>
+        <v>590064.6429099999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>601991.8487</v>
+        <v>681303.1894499999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>586439.99315</v>
+        <v>681942.84138</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>627355.6620600001</v>
+        <v>744721.63327</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>629817.62104</v>
+        <v>768561.45042</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>635903.5327000001</v>
+        <v>841251.37665</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>670925.7349599999</v>
+        <v>886382.0038799999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>702188.40411</v>
+        <v>965856.70848</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1450944.43199</v>
+        <v>1687376.67306</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1507971.43721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1837324.20014</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1886279.445</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1324.09817</v>
+        <v>1537.7505</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1221.53389</v>
+        <v>1608.72697</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3037.21594</v>
+        <v>3068.99226</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1491.00217</v>
+        <v>1521.18322</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1198.39913</v>
+        <v>1322.29422</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1510.96081</v>
+        <v>2026.86922</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1041.87601</v>
+        <v>1177.88351</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>658.37321</v>
+        <v>1557.81096</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>806.7730600000001</v>
+        <v>1765.43616</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3875.70944</v>
+        <v>5091.08372</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4429.62809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5698.481070000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1814.763</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>65770.59948</v>
+        <v>71071.66244</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>70361.52487000001</v>
+        <v>76146.43656</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>104423.98733</v>
+        <v>112758.39459</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>72911.51157999999</v>
+        <v>81957.06178</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>79777.0779</v>
+        <v>92079.93196</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>73816.70329</v>
+        <v>88401.77252000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>71204.59960000002</v>
+        <v>92367.83825999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>83398.08548000001</v>
+        <v>104357.15737</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>86144.65210000001</v>
+        <v>112647.97231</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>189997.06765</v>
+        <v>224544.89586</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>195059.59167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>230297.19752</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>229894.984</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>448554.1401</v>
+        <v>497591.51989</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>451727.09337</v>
+        <v>512309.47938</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>494530.64543</v>
+        <v>565475.8026000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>512037.4794</v>
+        <v>598464.59638</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>546380.1850299999</v>
+        <v>651319.4070899999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>554489.9569399999</v>
+        <v>678132.8086799999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>563657.05709</v>
+        <v>747705.65488</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>586869.27627</v>
+        <v>780467.0355499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>615236.97895</v>
+        <v>851443.3000099999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1257071.6549</v>
+        <v>1457740.69348</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1308482.21745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1601328.52155</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1654569.698</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>69487.93377999999</v>
+        <v>69895.20778</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>80732.14085</v>
+        <v>82503.26955</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>76673.38377</v>
+        <v>65846.29793</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>74169.35449</v>
+        <v>55726.29775999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>74882.13729000001</v>
+        <v>70807.08851999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>63622.34147000001</v>
+        <v>58125.88526</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>43859.5359</v>
+        <v>10911.82486999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>33327.78372</v>
+        <v>1031.549959999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>43760.87232</v>
+        <v>12281.67144</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>181991.06575</v>
+        <v>194849.05769</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>104355.12616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>115018.56772</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>166188.962</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>17274.32899</v>
+        <v>408146.3388</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>15296.46054</v>
+        <v>290905.1257799999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>20827.90378</v>
+        <v>278640.16625</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15509.81244</v>
+        <v>316786.08198</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17674.42756</v>
+        <v>71532.84481000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>15799.51529</v>
+        <v>86844.34788</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>18206.73795</v>
+        <v>181907.32031</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>20225.86684</v>
+        <v>161802.77095</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>22311.44972</v>
+        <v>155411.21467</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>123862.76165</v>
+        <v>411774.6556</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>71106.26198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>313879.50732</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>561785.2929999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>353.81155</v>
+        <v>499.12497</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>156.35862</v>
+        <v>466.89312</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3304.72586</v>
+        <v>5784.3825</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>528.75536</v>
+        <v>1599.49089</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>168.7041</v>
+        <v>10195.02787</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>22.11319</v>
+        <v>12064.76707</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>313.09434</v>
+        <v>9858.463029999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>153.23258</v>
+        <v>4421.40119</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>367.02975</v>
+        <v>68184.48821</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1509.93365</v>
+        <v>12526.85107</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2829.1871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>39099.86999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>5932.285</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>381.18647</v>
+        <v>246116.9618</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>46.27423</v>
+        <v>215562.61055</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>822.1602500000001</v>
+        <v>148726.64326</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>257.45821</v>
+        <v>221127.23759</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>635.61054</v>
+        <v>11205.37588</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>133.57195</v>
+        <v>2187.88571</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>259.57475</v>
+        <v>456.4824</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>174.78483</v>
+        <v>1111.53452</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>121.72669</v>
+        <v>2686.64946</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>354.96714</v>
+        <v>383.32585</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>337.65287</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>33363.626</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3567.41297</v>
+        <v>14831.50692</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2496.99936</v>
+        <v>10198.77978</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2153.0566</v>
+        <v>11831.20014</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2494.66315</v>
+        <v>13482.2019</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2141.79023</v>
+        <v>8821.30032</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2686.48863</v>
+        <v>14826.03395</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2126.69675</v>
+        <v>14349.31128</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2316.37498</v>
+        <v>21976.81528</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2764.93037</v>
+        <v>15730.82611</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>13539.12308</v>
+        <v>29420.91705</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14082.91684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>40005.94669999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>27772.029</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>493.56331</v>
+        <v>520.17958</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>368.08536</v>
+        <v>451.27356</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>259.50194</v>
+        <v>259.91204</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>204.65762</v>
+        <v>466.78837</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>937.71669</v>
+        <v>1129.0962</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>166.25676</v>
+        <v>2989.54048</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>269.16076</v>
+        <v>530.9821900000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>239.50342</v>
+        <v>251.64502</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>553.74943</v>
+        <v>2262.65323</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1057.72604</v>
+        <v>1276.00264</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>946.13884</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1720.29861</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1851.3</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>538.0693500000001</v>
+        <v>856.7593499999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>431.04697</v>
+        <v>436.9061800000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>186.40116</v>
+        <v>1317.63199</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>971.802</v>
+        <v>1747.76277</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1260.2459</v>
+        <v>1939.11365</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1006.56742</v>
+        <v>1595.66364</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>242.87197</v>
+        <v>1770.26802</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>630.06764</v>
+        <v>951.72131</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1090.30728</v>
+        <v>1424.03407</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2289.20728</v>
+        <v>2648.34049</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>524.90192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2257.48962</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3913.499</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>456.98913</v>
+        <v>2435.24862</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>579.0784699999999</v>
+        <v>652.4813200000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>733.4661599999999</v>
+        <v>14507.92454</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>260.15912</v>
+        <v>494.95521</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>356.54219</v>
+        <v>2956.89293</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>212.84302</v>
+        <v>435.62353</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>423.70889</v>
+        <v>8522.034089999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>226.02096</v>
+        <v>387.91065</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>295.0024</v>
+        <v>2290.428960000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1107.50819</v>
+        <v>3249.36446</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1199.70681</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4930.7397</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4744.284</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5389.98272</v>
+        <v>134409.21624</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4345.94954</v>
+        <v>51894.94351</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6325.47504</v>
+        <v>80656.44965</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3775.90064</v>
+        <v>64962.33314000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5179.260459999999</v>
+        <v>21546.11728</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5052.27717</v>
+        <v>30304.7614</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7874.48687</v>
+        <v>117774.27865</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8876.65208</v>
+        <v>112503.4554</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8226.643979999999</v>
+        <v>32915.52221</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>75100.30918000001</v>
+        <v>320453.89617</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>28427.27492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>174299.85783</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>435112.118</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>88.30277000000001</v>
+        <v>115.75509</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>65.70108</v>
+        <v>317.05812</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>100.00494</v>
+        <v>464.22626</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>12.5059</v>
+        <v>92.01694999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>17.4023</v>
+        <v>4175.94712</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>24.59271</v>
+        <v>2183.83102</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>54.56475</v>
+        <v>855.93208</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1.22601</v>
+        <v>3.30152</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>27.37477</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>93.01961000000001</v>
+        <v>93.10111000000002</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>3.491439999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14.074</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>151.93445</v>
+        <v>155.11337</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>45.05354999999999</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>58.57429</v>
+        <v>92.84757</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>51.05916</v>
@@ -2096,313 +2147,353 @@
         <v>177.81703</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>15.58547</v>
+        <v>26.38548</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>58.51241</v>
+        <v>64.61388000000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>32.70532</v>
+        <v>43.70532</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>44.19076</v>
+        <v>44.76426</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>141.00098</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>520.59606</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>538.29149</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>108.848</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5853.07627</v>
+        <v>8206.47286</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6761.91336</v>
+        <v>10879.12609</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6884.53754</v>
+        <v>14998.9483</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6952.851279999999</v>
+        <v>12762.236</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6799.338119999999</v>
+        <v>9386.156530000002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6479.21897</v>
+        <v>20229.8556</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6584.06646</v>
+        <v>27724.95469</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7575.29902</v>
+        <v>20151.28074</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8820.494290000001</v>
+        <v>29844.47339</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>28669.9665</v>
+        <v>41581.85578</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>22234.39518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>50685.86906999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>48973.23</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>16616.88495</v>
+        <v>72440.55302000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>14395.44734</v>
+        <v>62525.89376000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>20108.6235</v>
+        <v>73058.50701</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>11770.10085</v>
+        <v>87022.35867</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>18376.55222</v>
+        <v>71312.98061</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>12129.74859</v>
+        <v>41309.77823</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36319.14752000001</v>
+        <v>167406.08804</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>19310.19228</v>
+        <v>134980.41343</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>17131.79954</v>
+        <v>64298.59665</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>109435.20499</v>
+        <v>403914.95166</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>51110.78173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>237329.45238</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>484347.868</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1558.99472</v>
+        <v>1657.49231</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>764.5598400000001</v>
+        <v>837.2869599999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>563.9641299999998</v>
+        <v>608.6177799999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1321.18653</v>
+        <v>1410.70151</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>546.75651</v>
+        <v>671.8323</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>461.23789</v>
+        <v>563.03854</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>747.4239200000001</v>
+        <v>865.6426500000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>419.74249</v>
+        <v>528.01283</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>252.0387</v>
+        <v>1267.79904</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1184.6948</v>
+        <v>1499.15128</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1442.05814</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2570.16526</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2265.134</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3375.72381</v>
+        <v>3419.18193</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3785.79288</v>
+        <v>4733.39222</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5696.32569</v>
+        <v>6772.703820000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1987.57553</v>
+        <v>9030.352409999998</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6934.14205</v>
+        <v>8325.943670000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2894.08541</v>
+        <v>3469.65694</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22306.22487</v>
+        <v>22861.70329</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5019.51648</v>
+        <v>5744.96314</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2254.3308</v>
+        <v>4430.55688</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>13648.46075</v>
+        <v>29058.01781</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7954.833820000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>15367.356</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>36449.425</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>103.75322</v>
+        <v>108.53038</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>126.60874</v>
+        <v>148.57776</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>564.17724</v>
+        <v>753.75875</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>87.19569</v>
+        <v>88.88132</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>138.82519</v>
+        <v>1768.40631</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>159.59938</v>
+        <v>228.62536</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>26.25069</v>
+        <v>9555.810660000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>338.67717</v>
+        <v>438.67717</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>5.58484</v>
+        <v>7938.389079999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>509.5702899999999</v>
+        <v>2317.92527</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>162.58612</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4140.3925</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>453.105</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4942.54745</v>
+        <v>58575.29268</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3878.43399</v>
+        <v>48143.87794999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6951.341399999999</v>
+        <v>56464.34586</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3471.09254</v>
+        <v>68845.71539</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4540.68981</v>
+        <v>48401.48154</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4468.80395</v>
+        <v>27369.15164</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7102.81878</v>
+        <v>121158.00567</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>8594.807779999999</v>
+        <v>113240.29352</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>10447.34373</v>
+        <v>42142.50371</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>79607.50637999999</v>
+        <v>351305.54765</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>25660.90034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>188784.03305</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>423733.596</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>7.86068</v>
+        <v>22.22061</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>71.39861000000001</v>
+        <v>120.9867</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>36.67681</v>
+        <v>77.96820999999998</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>93.95922</v>
+        <v>186.21491</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>5.915100000000001</v>
+        <v>3482.16539</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>23.67554</v>
+        <v>2873.16036</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>39.82204</v>
+        <v>561.2927300000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>18.11018</v>
+        <v>174.0431</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>12.16194</v>
+        <v>153.70894</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>179.7298</v>
+        <v>332.27178</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>434.34276</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>35.12857</v>
+        <v>54.29105</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>54.64878</v>
+        <v>90.00007000000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>6.07997</v>
+        <v>371.8863899999999</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>68.47552</v>
+        <v>77.10567</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>1.9548</v>
@@ -2417,601 +2508,679 @@
         <v>5.1535</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>2.11865</v>
+        <v>2.12099</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>144.82558</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>21.19544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>21.19545</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>5.897</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6592.876500000001</v>
+        <v>8603.54406</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5714.0045</v>
+        <v>8451.7721</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6290.05826</v>
+        <v>8009.226199999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4740.61582</v>
+        <v>7383.387460000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6208.268760000001</v>
+        <v>8661.196599999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4121.952359999999</v>
+        <v>6805.751329999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6065.94094</v>
+        <v>12372.96676</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4914.18468</v>
+        <v>14849.27017</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4158.22088</v>
+        <v>8363.51801</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>14160.41739</v>
+        <v>19257.21229</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>15869.20787</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>26011.96736</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21440.613</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>23528.07755</v>
+        <v>108573.47341</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>16844.09114</v>
+        <v>34893.82393</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18725.53557</v>
+        <v>31666.83114</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>25131.1456</v>
+        <v>39289.11718</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>23038.54815999999</v>
+        <v>44676.25246</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>24342.14703</v>
+        <v>46979.13891</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>23996.53905</v>
+        <v>50780.39052</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>27038.40543</v>
+        <v>68130.01492</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>26630.28227</v>
+        <v>66643.99836</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>106882.70121</v>
+        <v>174871.59543</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>107560.1348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>200488.14683</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>175924.895</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>22391.83958</v>
+        <v>106784.64162</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>16072.17212</v>
+        <v>33692.17784</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>17846.8069</v>
+        <v>29666.18762</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>23989.65196</v>
+        <v>37324.52224000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>21767.7444</v>
+        <v>42706.57444999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>23154.35522</v>
+        <v>43597.62414</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22874.5107</v>
+        <v>47975.32714</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>26246.85543</v>
+        <v>62104.46350000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>25824.78269</v>
+        <v>63593.64822</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>102974.44849</v>
+        <v>166787.22816</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>103228.31687</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>192452.44017</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>168427.051</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1136.23797</v>
+        <v>1788.83179</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>771.91902</v>
+        <v>1201.64609</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>878.7286700000001</v>
+        <v>2000.64352</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1141.49364</v>
+        <v>1964.59494</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1270.80376</v>
+        <v>1969.67801</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1187.79181</v>
+        <v>3381.51477</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1122.02835</v>
+        <v>2805.06338</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>791.5499999999998</v>
+        <v>6025.55142</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>805.4995799999999</v>
+        <v>3050.35014</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3908.25272</v>
+        <v>8084.36727</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4331.817929999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>8035.70666</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7497.844</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>46617.30027</v>
+        <v>297027.52015</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>64789.06290999999</v>
+        <v>275988.6776400001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>58667.12848</v>
+        <v>239761.12603</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>52777.92047999999</v>
+        <v>246200.90389</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>51141.46447</v>
+        <v>26350.70026</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>42949.96114</v>
+        <v>56681.316</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1750.587280000001</v>
+        <v>-25367.33338</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7205.052850000001</v>
+        <v>-40276.10744</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>22310.24023</v>
+        <v>36750.29109999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>89535.92119999998</v>
+        <v>27837.16620000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>16790.47161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-8919.524169999995</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>67701.492</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>16696.06912</v>
+        <v>21630.5474</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16725.91142</v>
+        <v>23720.3929</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>19300.10371</v>
+        <v>30773.51662</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>20941.19402</v>
+        <v>43199.63289</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>22853.82829</v>
+        <v>49615.58514</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>22416.08855</v>
+        <v>38754.97829</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>25134.33142</v>
+        <v>71166.69166</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>29405.42384</v>
+        <v>80783.19867</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>38477.87244</v>
+        <v>190189.9852</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>75471.31579000001</v>
+        <v>111656.48328</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>104891.61473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>166916.53358</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>209212.938</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1917.03798</v>
+        <v>2052.9513</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>800.81084</v>
+        <v>1447.89034</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>653.7495099999999</v>
+        <v>1765.22713</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>147.22647</v>
+        <v>845.87569</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>400.99997</v>
+        <v>1245.06426</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>770.1016099999999</v>
+        <v>999.4177</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>962.15574</v>
+        <v>3268.65835</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1537.32756</v>
+        <v>8142.762239999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>952.1168999999999</v>
+        <v>1616.5978</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>274.34625</v>
+        <v>289.53999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>517.08688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>692.27485</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>890.6130000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14779.03114</v>
+        <v>19577.5961</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15925.10058</v>
+        <v>22272.50256</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>18646.3542</v>
+        <v>29008.28949</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>20793.96755</v>
+        <v>42353.7572</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>22452.82832</v>
+        <v>48370.52088</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>21645.98694</v>
+        <v>37755.56059</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24172.17568</v>
+        <v>67898.03331</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>27868.09628</v>
+        <v>72640.43643</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>37525.75554</v>
+        <v>188573.3874</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>75196.96953999999</v>
+        <v>111366.94329</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>104374.52785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>166224.25873</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>208322.325</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>23033.70122</v>
+        <v>34094.20340999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>22963.40817</v>
+        <v>54900.02552</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>142358.0912</v>
+        <v>196285.06201</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>25076.32625</v>
+        <v>35525.97811</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>26676.93304</v>
+        <v>43193.74939</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>60797.12159999999</v>
+        <v>101841.97313</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>28453.15327</v>
+        <v>67653.45509</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>94495.56592000001</v>
+        <v>151737.48573</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>35504.16224</v>
+        <v>68284.18687999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>147664.78718</v>
+        <v>223493.62241</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>99328.80344</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>140213.64012</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>156732.216</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>446.38739</v>
+        <v>1103.02932</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>835.69881</v>
+        <v>847.32253</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>606.7244599999999</v>
+        <v>725.85961</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>288.02216</v>
+        <v>908.1508100000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>292.67978</v>
+        <v>3682.73327</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>272.84476</v>
+        <v>3884.50427</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>686.5689600000001</v>
+        <v>1531.11967</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>735.55741</v>
+        <v>1350.42176</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>454.22667</v>
+        <v>990.77652</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>786.46689</v>
+        <v>1218.03305</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2254.88561</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4281.873810000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1228.941</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2517.29849</v>
+        <v>2703.43182</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2427.25785</v>
+        <v>17395.43601</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5040.05899</v>
+        <v>6832.70361</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1715.14769</v>
+        <v>2901.16481</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1781.58113</v>
+        <v>2334.43147</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1950.77551</v>
+        <v>5016.7309</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2573.4058</v>
+        <v>3966.8701</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3134.5832</v>
+        <v>5418.53019</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3897.39394</v>
+        <v>5429.7173</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3110.032760000001</v>
+        <v>16697.14297</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3354.44103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5856.04245</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7111.833</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>20070.01534000001</v>
+        <v>30287.74227</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>19700.45151</v>
+        <v>36657.26698000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>136711.30775</v>
+        <v>188726.49879</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>23073.1564</v>
+        <v>31716.66249</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>24602.67213</v>
+        <v>37176.58465</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>58573.50133</v>
+        <v>92940.73796000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25193.17851</v>
+        <v>62155.46532</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>90625.42531000001</v>
+        <v>144968.53378</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>31152.54163</v>
+        <v>61863.69306000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>143768.28753</v>
+        <v>205578.44639</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>93719.47680000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>130075.72386</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>148391.442</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>40279.66817</v>
+        <v>284563.86414</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>58551.56616</v>
+        <v>244809.04502</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-64390.85901000001</v>
+        <v>74249.58064000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>48642.78824999999</v>
+        <v>253874.55867</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>47318.35972</v>
+        <v>32772.53601</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4568.928089999999</v>
+        <v>-6405.678839999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1568.234570000001</v>
+        <v>-21854.09681</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-57885.08923000001</v>
+        <v>-111230.3945</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>25283.95043</v>
+        <v>158656.08942</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>17342.44981</v>
+        <v>-83999.97293</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>22353.2829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>17783.36929000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>120182.214</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>20877.61828</v>
+        <v>35939.17648</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>22829.53963</v>
+        <v>26516.58199</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24011.06793</v>
+        <v>35980.9016</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>24172.80452</v>
+        <v>28621.32419</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>25717.90487</v>
+        <v>31631.99716</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>25449.51392</v>
+        <v>33823.25511</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>24165.15628</v>
+        <v>35983.34863</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>24638.20179</v>
+        <v>36870.68131</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>27099.43522</v>
+        <v>45811.11199</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65262.38461</v>
+        <v>81081.75667</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>69143.62001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>95171.38141000002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>111565.179</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>19402.04989</v>
+        <v>248624.68766</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>35722.02653</v>
+        <v>218292.46303</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-88401.92694000002</v>
+        <v>38268.67904000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>24469.98373</v>
+        <v>225253.23448</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>21600.45485</v>
+        <v>1140.53885</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-20880.58583</v>
+        <v>-40228.93395000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-25733.39085</v>
+        <v>-57837.44544</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-82523.29102</v>
+        <v>-148101.07581</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1815.48479</v>
+        <v>112844.97743</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-47919.9348</v>
+        <v>-165081.7296</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-46790.33711</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-77388.01212</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8617.035</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>13147</v>
+        <v>13822</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>13170</v>
+        <v>14029</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>13187</v>
+        <v>14124</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>12675</v>
+        <v>13836</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>12722</v>
+        <v>14205</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>12387</v>
+        <v>14128</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>12142</v>
+        <v>14272</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>12339</v>
+        <v>14774</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>12571</v>
+        <v>15400</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>16436</v>
+        <v>18319</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>16804</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>19700</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>